--- a/ykodama/ddbj_packages/excel/MIGS.eu.soil.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIGS.eu.soil.4.0.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique name for each sample (used as an ID)</t>
+          <t>The sample name is a name that you choose for the sample, it works as an ID.  Each sample name must be unique in samples submitted from a submission account.</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique title for each sample</t>
+          <t>Sample title should be short and informative. Each sample title must be unique in a submission.  Examples: 1) Escherichia coli O104:H4 str. C227-11 clinical isolate 2010_333_NC-6;  2) CD8+ T cells from female TSG6-knockout BALB/c mouse;  3) Human metagenome isolated from urine of healthy female.</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Brief description</t>
+          <t>A brief description for the sample.</t>
         </r>
       </text>
     </comment>
@@ -67,7 +67,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Organism name in the NCBI Taxonomy database</t>
+          <t>The most descriptive organism name for this sample (to the species, if relevant) in the NCBI Taxonomy database, http://www.ncbi.nlm.nih.gov/taxonomy If it is not in the database, provide as much information about the organism as possible and the DDBJ staff apply a new organism name to NCBI Taxonomy.</t>
         </r>
       </text>
     </comment>
@@ -80,7 +80,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>NCBI Taxonomy identifier</t>
+          <t>NCBI Taxonomy identifier. This is appropriate for individual organisms, some metagenomes and environmental samples (http://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=12908&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock).  If it is not in the database, enter a tentative ID (e.g., 1). The DDBJ staff apply a new organism name to NCBI Taxonomy, and then the tentative ID is replaced by an assigned TaxID.</t>
         </r>
       </text>
     </comment>
@@ -121,7 +121,7 @@
             <family val="2"/>
           </rPr>
           <t>Organism group
-Identification of the specific individual</t>
+Identification or description of the specific individual from which this sample was obtained</t>
         </r>
       </text>
     </comment>
@@ -135,7 +135,21 @@
             <family val="2"/>
           </rPr>
           <t>Organism group
-Cultivar name</t>
+Cultivar name - cultivated variety of plant</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Organism group
+a population within a given species displaying genetically based, phenotypic traits that reflect adaptation to a local habitat, e.g., Columbia</t>
         </r>
       </text>
     </comment>
@@ -148,7 +162,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Time of sampling (eg, 2008-01-23, 2008-01)</t>
+          <t>Time of sampling (single instance or interval, eg., 2008-01-23T19:23:10, 2008-01-23, 2008-01, 2008, 1952-10-21T11:43Z/1952-10-21T17:43Z, 1952-10-21/1953-02-15, 1952-10/1953-02, 1952/1953)</t>
         </r>
       </text>
     </comment>
@@ -161,7 +175,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Depth is defined as the vertical distance below local surface. Depth can be reported as an interval for subsurface samples.</t>
+          <t>Depth is defined as the vertical distance below surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. Depth can be reported as an interval for subsurface samples.</t>
         </r>
       </text>
     </comment>
@@ -187,7 +201,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Descriptor of the broad ecological context of a sample</t>
+          <t>Descriptor of the broad ecological context of a sample. Examples include: desert, taiga or deciduous woodland. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -200,7 +214,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Descriptor of the local environment.</t>
+          <t>Descriptor of the local environment. Examples include: harbor, cliff, or lake. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -213,7 +227,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Material that was displaced by the sample, or material in which a sample was embedded, prior to the sampling event.</t>
+          <t>Material that was displaced by the sample, or material in which a sample was embedded, prior to the sampling event. Examples include: air, soil, or water. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -239,7 +253,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Geographical origin of the sample (eg, "Japan:Kanagawa, Hakone, Lake Ashi")</t>
+          <t xml:space="preserve">Geographical origin of the sample; use the appropriate name from the list, http://www.ddbj.nig.ac.jp/sub/country-e.html. Use a colon to separate the country or ocean from more detailed information about the location, eg "Japan:Kanagawa, Hakone, Lake Ashi" </t>
         </r>
       </text>
     </comment>
@@ -252,7 +266,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Pubmed ID, DOI or URL of publication for isolation and growth condition specifications of the organism/material</t>
+          <t>Publication reference in the form of pubmed ID, DOI or URL for isolation and growth condition specifications of the organism/material</t>
         </r>
       </text>
     </comment>
@@ -265,7 +279,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The geographical coordinates of the location in decimal degrees latitude and longitude (eg, 47.94 N 28.12 W)</t>
+          <t>The geographical coordinates of the location where the sample was collected. Specify as decimal degrees latitude and longitude in format "d[d.dddd] N|S d[dd.dddd] W|E", eg, 47.94 N 28.12 W</t>
         </r>
       </text>
     </comment>
@@ -291,7 +305,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The ploidy level of the genome (eg, allopolyploid, haploid, diploid, triploid, tetraploid). </t>
+          <t xml:space="preserve">The ploidy level of the genome (e.g. allopolyploid, haploid, diploid, triploid, tetraploid). </t>
         </r>
       </text>
     </comment>
@@ -304,7 +318,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>phage: lytic/lysogenic/temperate/obligately lytic;  plasmid: incompatibility group;  eukaryote: asexual/sexual</t>
+          <t>This field is specific to different taxa. For phage: lytic/lysogenic/temperate/obligately lytic;  for plasmid: incompatibility group;  for eukaryote: asexual/sexual</t>
         </r>
       </text>
     </comment>
@@ -330,7 +344,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>aluminum saturation</t>
+          <t>aluminum saturation (esp. for tropical soils)</t>
         </r>
       </text>
     </comment>
@@ -395,7 +409,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Free-living or from host</t>
+          <t>Free-living or from host (define relationship)</t>
         </r>
       </text>
     </comment>
@@ -551,7 +565,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Information regarding health state of the individual</t>
+          <t>Health or disease status of sample at time of collection</t>
         </r>
       </text>
     </comment>
@@ -564,7 +578,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>heavy metals present and concentrations of any drug used by subject and the frequency of usage</t>
+          <t>heavy metals present and concentrations of any drug used by subject and the frequency of usage; can include multiple heavy metals and concentrations</t>
         </r>
       </text>
     </comment>
@@ -616,7 +630,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The natural (as opposed to laboratory) host to the organism from which the sample was obtained</t>
+          <t>The natural (as opposed to laboratory) host to the organism from which the sample was obtained. Use the full taxonomic name, eg, "Homo sapiens".</t>
         </r>
       </text>
     </comment>
@@ -629,7 +643,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>NCBI taxonomy ID of the host</t>
+          <t>NCBI taxonomy ID of the host, e.g. 9606</t>
         </r>
       </text>
     </comment>
@@ -642,7 +656,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Describes the physical, environmental and/or local geographical source of the biological sample</t>
+          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
         </r>
       </text>
     </comment>
@@ -707,7 +721,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>A locus tag prefix for an annotated genome</t>
+          <t>A locus tag prefix required for an annotated genome, http://www.ddbj.nig.ac.jp/sub/locus_tag-e.html</t>
         </r>
       </text>
     </comment>
@@ -932,6 +946,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="BU13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the direction a slope faces. While looking down a slope use a compass to record the direction you are facing (direction or degrees); e.g., NW or 315°. This measure provides an indication of sun and wind exposure that will influence soil temperature and evapotranspiration.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="BV13" authorId="0">
       <text>
         <r>
@@ -980,7 +1007,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>unique identifier assigned to a material sample used</t>
+          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
         </r>
       </text>
     </comment>

--- a/ykodama/ddbj_packages/excel/MIGS.eu.soil.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIGS.eu.soil.4.0.xlsx
@@ -474,6 +474,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="@"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -558,7 +561,7 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">

--- a/ykodama/ddbj_packages/excel/MIGS.eu.soil.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIGS.eu.soil.4.0.xlsx
@@ -106,25 +106,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>A locus tag prefix required for an annotated genome, http://www.ddbj.nig.ac.jp/sub/locus_tag-e.html</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
           <t>Organism group
 microbial or eukaryotic strain name</t>
         </r>
       </text>
     </comment>
-    <comment ref="I15" authorId="0">
+    <comment ref="H15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -138,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J15" authorId="0">
+    <comment ref="I15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -152,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K15" authorId="0">
+    <comment ref="J15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -166,6 +153,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="K15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Time of sampling (single instance or interval, eg., 2008-01-23T19:23:10, 2008-01-23, 2008-01, 2008, 1952-10-21T11:43Z/1952-10-21T17:43Z, 1952-10-21/1953-02-15, 1952-10/1953-02, 1952/1953)</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L15" authorId="0">
       <text>
         <r>
@@ -175,7 +175,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Time of sampling (single instance or interval, eg., 2008-01-23T19:23:10, 2008-01-23, 2008-01, 2008, 1952-10-21T11:43Z/1952-10-21T17:43Z, 1952-10-21/1953-02-15, 1952-10/1953-02, 1952/1953)</t>
+          <t>Depth is defined as the vertical distance below surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. Depth can be reported as an interval for subsurface samples.</t>
         </r>
       </text>
     </comment>
@@ -188,7 +188,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Depth is defined as the vertical distance below surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. Depth can be reported as an interval for subsurface samples.</t>
+          <t>The elevation of the sampling site as measured by the vertical distance from mean sea level.</t>
         </r>
       </text>
     </comment>
@@ -201,7 +201,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The elevation of the sampling site as measured by the vertical distance from mean sea level.</t>
+          <t>Descriptor of the broad ecological context of a sample. Examples include: desert, taiga or deciduous woodland. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -214,7 +214,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Descriptor of the broad ecological context of a sample. Examples include: desert, taiga or deciduous woodland. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
+          <t>Descriptor of the local environment. Examples include: harbor, cliff, or lake. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -227,7 +227,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Descriptor of the local environment. Examples include: harbor, cliff, or lake. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
+          <t>Material that was displaced by the sample, or material in which a sample was embedded, prior to the sampling event. Examples include: air, soil, or water. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -240,7 +240,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Material that was displaced by the sample, or material in which a sample was embedded, prior to the sampling event. Examples include: air, soil, or water. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
+          <t>Estimated size of genome</t>
         </r>
       </text>
     </comment>
@@ -253,7 +253,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Estimated size of genome</t>
+          <t xml:space="preserve">Geographical origin of the sample; use the appropriate name from the list, http://www.ddbj.nig.ac.jp/sub/country-e.html. Use a colon to separate the country or ocean from more detailed information about the location, eg "Japan:Kanagawa, Hakone, Lake Ashi" </t>
         </r>
       </text>
     </comment>
@@ -266,7 +266,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Geographical origin of the sample; use the appropriate name from the list, http://www.ddbj.nig.ac.jp/sub/country-e.html. Use a colon to separate the country or ocean from more detailed information about the location, eg "Japan:Kanagawa, Hakone, Lake Ashi" </t>
+          <t>Publication reference in the form of pubmed ID, DOI or URL for isolation and growth condition specifications of the organism/material</t>
         </r>
       </text>
     </comment>
@@ -279,7 +279,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Publication reference in the form of pubmed ID, DOI or URL for isolation and growth condition specifications of the organism/material</t>
+          <t>The geographical coordinates of the location where the sample was collected. Specify as decimal degrees latitude and longitude in format "d[d.dddd] N|S d[dd.dddd] W|E", eg, 47.94 N 28.12 W</t>
         </r>
       </text>
     </comment>
@@ -292,7 +292,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The geographical coordinates of the location where the sample was collected. Specify as decimal degrees latitude and longitude in format "d[d.dddd] N|S d[dd.dddd] W|E", eg, 47.94 N 28.12 W</t>
+          <t>Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. Always applied to the haploid chromosome count of a eukaryote</t>
         </r>
       </text>
     </comment>
@@ -305,7 +305,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. Always applied to the haploid chromosome count of a eukaryote</t>
+          <t xml:space="preserve">The ploidy level of the genome (e.g. allopolyploid, haploid, diploid, triploid, tetraploid). </t>
         </r>
       </text>
     </comment>
@@ -318,7 +318,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The ploidy level of the genome (e.g. allopolyploid, haploid, diploid, triploid, tetraploid). </t>
+          <t>This field is specific to different taxa. For phage: lytic/lysogenic/temperate/obligately lytic;  for plasmid: incompatibility group;  for eukaryote: asexual/sexual</t>
         </r>
       </text>
     </comment>
@@ -331,7 +331,839 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>This field is specific to different taxa. For phage: lytic/lysogenic/temperate/obligately lytic;  for plasmid: incompatibility group;  for eukaryote: asexual/sexual</t>
+          <t>addition of fertilizers, pesticides, etc. - amount and time of applications</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>aluminum saturation (esp. for tropical soils)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>reference or method used in determining Al saturation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The altitude of the sample is the vertical distance between Earth's surface above Sea Level and the sampled position in the air.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>mean annual and seasonal precipitation (mm)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>mean annual and seasonal temperature (degree Celsius)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Free-living or from host (define relationship)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>whether or not crop is rotated, and if yes, rotation schedule</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>present state of sample site</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>vegetation classification from one or more standard classification systems, or agricultural crop</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>reference or method used in vegetation classification</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>drainage classification from a standard system such as the USDA system</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Plasmids that have significance phenotypic consequence</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>unusual physical events that may have affected microbial populations</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>measured salinity</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>soil classification from the FAO World Reference Database for Soil Resources</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>historical and/or physical evidence of fire</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>historical and/or physical evidence of flooding</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Health or disease status of sample at time of collection</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>heavy metals present and concentrations of any drug used by subject and the frequency of usage; can include multiple heavy metals and concentrations</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>reference or method used in determining heavy metals</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>specific layer in the land area which measures parallel to the soil surface and possesses physical characteristics which differ from the layers above and beneath</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>reference or method used in determining the horizon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The natural (as opposed to laboratory) host to the organism from which the sample was obtained. Use the full taxonomic name, eg, "Homo sapiens".</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NCBI taxonomy ID of the host, e.g. 9606</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>link to digitized soil maps or other soil classification information</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>link to climate resource</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>soil classification based on local soil classification system</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>reference or method used in determining the local soil classification</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>A locus tag prefix required for an annotated genome, http://www.ddbj.nig.ac.jp/sub/locus_tag-e.html</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the part of the organic matter in the soil that constitutes living microorganisms smaller than 5-10 micrometers. IF you keep this, you would need to have correction factors used for conversion to the final units, which should be mg C (or N)/kg soil).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BE15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>reference or method used in determining microbial biomass</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BF15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>any other measurement performed or parameter collected, that is not listed here</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>To what is the entity pathogenic</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BH15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>pH measurement</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BI15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>reference or method used in determining pH</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BJ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>were multiple DNA extractions mixed? how many?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BK15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>previous land use and dates</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BL15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>reference or method used in determining previous land use and dates</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cross-sectional position in the hillslope where sample was collected, sample area position in relation to surrounding areas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BN15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Primary publication or genome report in the form of pubmed ID, DOI or URL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BO15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>reference or method used in determining salinity</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BP15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Method or device employed for collecting sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BQ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Processing applied to the sample during or after isolation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BR15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Amount or size of sample (volume, mass or area) that was collected</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BS15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>volume (mL) or weight (g) of sample processed for DNA extraction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BT15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>collection design of pooled samples and/or sieve size and amount of sample sieved</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BU15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the direction a slope faces. While looking down a slope use a compass to record the direction you are facing (direction or degrees); e.g., NW or 315°. This measure provides an indication of sun and wind exposure that will influence soil temperature and evapotranspiration.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BV15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>commonly called "slope". The angle between ground surface and a horizontal line (in percent). This is the direction that overland water would flow. This measure is usually taken with a hand level meter or clinometer.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BW15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>soil series name or other lower-level classification</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BX15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>reference or method used in determining soil series name or other lower-level classification</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BY15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BZ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>explain how and for how long the soil sample was stored before DNA extraction.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CA15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Information about the genetic distinctness of the lineage (eg., biovar, serovar)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CB15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the relative proportion of different grain sizes of mineral particles in a soil, as described using a standard system; express as % sand (50 um to 2 mm), silt (2 um to 50 um), and clay (&lt;2 um) with textural name (e.g., silty clay loam) optional.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CC15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>reference or method used in determining soil texture</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CD15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>note method(s) used for tilling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CE15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>reference or method used in determining the total N</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CF15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>total nitrogen content of the sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CG15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>reference or method used in determining total organic C</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CH15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Definition for soil: total organic C content of the soil units of g C/kg soil. Definition otherwise: total organic carbon content</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CI15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Feeding position in food chain (eg., chemolithotroph)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CJ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>water content (g/g or cm3/cm3)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CK15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>reference or method used in determining the water content of soil</t>
         </r>
       </text>
     </comment>
@@ -340,7 +1172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'MIGS: eukaryote, soil; version 4.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -416,58 +1248,253 @@
     <t>bioproject_accession</t>
   </si>
   <si>
+    <t>strain</t>
+  </si>
+  <si>
+    <t>isolate</t>
+  </si>
+  <si>
+    <t>cultivar</t>
+  </si>
+  <si>
+    <t>ecotype</t>
+  </si>
+  <si>
+    <t>collection_date</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>elev</t>
+  </si>
+  <si>
+    <t>env_biome</t>
+  </si>
+  <si>
+    <t>env_feature</t>
+  </si>
+  <si>
+    <t>env_material</t>
+  </si>
+  <si>
+    <t>estimated_size</t>
+  </si>
+  <si>
+    <t>geo_loc_name</t>
+  </si>
+  <si>
+    <t>isol_growth_condt</t>
+  </si>
+  <si>
+    <t>lat_lon</t>
+  </si>
+  <si>
+    <t>num_replicons</t>
+  </si>
+  <si>
+    <t>ploidy</t>
+  </si>
+  <si>
+    <t>propagation</t>
+  </si>
+  <si>
+    <t>agrochem_addition</t>
+  </si>
+  <si>
+    <t>al_sat</t>
+  </si>
+  <si>
+    <t>al_sat_meth</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>annual_season_precpt</t>
+  </si>
+  <si>
+    <t>annual_season_temp</t>
+  </si>
+  <si>
+    <t>biotic_relationship</t>
+  </si>
+  <si>
+    <t>crop_rotation</t>
+  </si>
+  <si>
+    <t>cur_land_use</t>
+  </si>
+  <si>
+    <t>cur_vegetation</t>
+  </si>
+  <si>
+    <t>cur_vegetation_meth</t>
+  </si>
+  <si>
+    <t>drainage_class</t>
+  </si>
+  <si>
+    <t>extrachrom_elements</t>
+  </si>
+  <si>
+    <t>extreme_event</t>
+  </si>
+  <si>
+    <t>extreme_salinity</t>
+  </si>
+  <si>
+    <t>fao_class</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>flooding</t>
+  </si>
+  <si>
+    <t>health_state</t>
+  </si>
+  <si>
+    <t>heavy_metals</t>
+  </si>
+  <si>
+    <t>heavy_metals_meth</t>
+  </si>
+  <si>
+    <t>horizon</t>
+  </si>
+  <si>
+    <t>horizon_meth</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>host_taxid</t>
+  </si>
+  <si>
+    <t>isolation_source</t>
+  </si>
+  <si>
+    <t>link_addit_analys</t>
+  </si>
+  <si>
+    <t>link_class_info</t>
+  </si>
+  <si>
+    <t>link_climate_info</t>
+  </si>
+  <si>
+    <t>local_class</t>
+  </si>
+  <si>
+    <t>local_class_meth</t>
+  </si>
+  <si>
     <t>locus_tag_prefix</t>
   </si>
   <si>
-    <t>strain</t>
-  </si>
-  <si>
-    <t>isolate</t>
-  </si>
-  <si>
-    <t>cultivar</t>
-  </si>
-  <si>
-    <t>ecotype</t>
-  </si>
-  <si>
-    <t>collection_date</t>
-  </si>
-  <si>
-    <t>depth</t>
-  </si>
-  <si>
-    <t>elev</t>
-  </si>
-  <si>
-    <t>env_biome</t>
-  </si>
-  <si>
-    <t>env_feature</t>
-  </si>
-  <si>
-    <t>env_material</t>
-  </si>
-  <si>
-    <t>estimated_size</t>
-  </si>
-  <si>
-    <t>geo_loc_name</t>
-  </si>
-  <si>
-    <t>isol_growth_condt</t>
-  </si>
-  <si>
-    <t>lat_lon</t>
-  </si>
-  <si>
-    <t>num_replicons</t>
-  </si>
-  <si>
-    <t>ploidy</t>
-  </si>
-  <si>
-    <t>propagation</t>
+    <t>microbial_biomass</t>
+  </si>
+  <si>
+    <t>microbial_biomass_meth</t>
+  </si>
+  <si>
+    <t>misc_param</t>
+  </si>
+  <si>
+    <t>pathogenicity</t>
+  </si>
+  <si>
+    <t>ph</t>
+  </si>
+  <si>
+    <t>ph_meth</t>
+  </si>
+  <si>
+    <t>pool_dna_extracts</t>
+  </si>
+  <si>
+    <t>previous_land_use</t>
+  </si>
+  <si>
+    <t>previous_land_use_meth</t>
+  </si>
+  <si>
+    <t>profile_position</t>
+  </si>
+  <si>
+    <t>ref_biomaterial</t>
+  </si>
+  <si>
+    <t>salinity_meth</t>
+  </si>
+  <si>
+    <t>samp_collect_device</t>
+  </si>
+  <si>
+    <t>samp_mat_process</t>
+  </si>
+  <si>
+    <t>samp_size</t>
+  </si>
+  <si>
+    <t>samp_vol_we_dna_ext</t>
+  </si>
+  <si>
+    <t>sieving</t>
+  </si>
+  <si>
+    <t>slope_aspect</t>
+  </si>
+  <si>
+    <t>slope_gradient</t>
+  </si>
+  <si>
+    <t>soil_type</t>
+  </si>
+  <si>
+    <t>soil_type_meth</t>
+  </si>
+  <si>
+    <t>source_material_id</t>
+  </si>
+  <si>
+    <t>store_cond</t>
+  </si>
+  <si>
+    <t>subspecf_gen_lin</t>
+  </si>
+  <si>
+    <t>texture</t>
+  </si>
+  <si>
+    <t>texture_meth</t>
+  </si>
+  <si>
+    <t>tillage</t>
+  </si>
+  <si>
+    <t>tot_n_meth</t>
+  </si>
+  <si>
+    <t>tot_nitro</t>
+  </si>
+  <si>
+    <t>tot_org_c_meth</t>
+  </si>
+  <si>
+    <t>tot_org_carb</t>
+  </si>
+  <si>
+    <t>trophic_level</t>
+  </si>
+  <si>
+    <t>water_content_soil</t>
+  </si>
+  <si>
+    <t>water_content_soil_meth</t>
   </si>
 </sst>
 </file>
@@ -888,77 +1915,77 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:89">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:89">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="3" customFormat="1">
+    <row r="3" spans="1:89" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="4" customFormat="1">
+    <row r="4" spans="1:89" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="5" customFormat="1">
+    <row r="5" spans="1:89" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:89">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:89">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:89">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:89">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:89">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:89">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:89">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:89">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:89">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:89">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -977,7 +2004,7 @@
       <c r="F15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="9" t="s">
@@ -989,7 +2016,7 @@
       <c r="J15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L15" s="7" t="s">
@@ -1028,8 +2055,203 @@
       <c r="W15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X15" s="7" t="s">
+      <c r="X15" s="8" t="s">
         <v>37</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="BQ15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BR15" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="BS15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BV15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="BW15" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="BX15" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="BY15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="BZ15" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA15" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="CC15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="CD15" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE15" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="CF15" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="CG15" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="CH15" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI15" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="CJ15" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="CK15" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/ykodama/ddbj_packages/excel/MIGS.eu.soil.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIGS.eu.soil.4.0.xlsx
@@ -435,11 +435,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Name of source institute and unique culture identifier. See the description for the proper format and list of allowed institutes, http://www.insdc.org/controlled-vocabulary-culturecollection-qualifier</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>present state of sample site</t>
         </r>
       </text>
     </comment>
-    <comment ref="AG15" authorId="0">
+    <comment ref="AH15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -452,7 +465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH15" authorId="0">
+    <comment ref="AI15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -465,7 +478,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI15" authorId="0">
+    <comment ref="AJ15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -478,7 +491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ15" authorId="0">
+    <comment ref="AK15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -491,7 +504,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK15" authorId="0">
+    <comment ref="AL15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -504,7 +517,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL15" authorId="0">
+    <comment ref="AM15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -517,7 +530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM15" authorId="0">
+    <comment ref="AN15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -530,7 +543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN15" authorId="0">
+    <comment ref="AO15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -543,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO15" authorId="0">
+    <comment ref="AP15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -556,7 +569,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP15" authorId="0">
+    <comment ref="AQ15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -569,7 +582,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ15" authorId="0">
+    <comment ref="AR15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -582,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR15" authorId="0">
+    <comment ref="AS15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -595,7 +608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS15" authorId="0">
+    <comment ref="AT15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -608,7 +621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT15" authorId="0">
+    <comment ref="AU15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -621,7 +634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU15" authorId="0">
+    <comment ref="AV15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -634,7 +647,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV15" authorId="0">
+    <comment ref="AW15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -647,7 +660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW15" authorId="0">
+    <comment ref="AX15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -660,7 +673,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY15" authorId="0">
+    <comment ref="AZ15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -673,7 +686,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ15" authorId="0">
+    <comment ref="BA15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -686,7 +699,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA15" authorId="0">
+    <comment ref="BB15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -699,7 +712,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BB15" authorId="0">
+    <comment ref="BC15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -712,7 +725,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC15" authorId="0">
+    <comment ref="BD15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -725,7 +738,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD15" authorId="0">
+    <comment ref="BE15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -738,7 +751,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BE15" authorId="0">
+    <comment ref="BF15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -751,7 +764,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF15" authorId="0">
+    <comment ref="BG15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -764,7 +777,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG15" authorId="0">
+    <comment ref="BH15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -777,7 +790,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BH15" authorId="0">
+    <comment ref="BI15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -790,7 +803,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BI15" authorId="0">
+    <comment ref="BJ15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -803,7 +816,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BJ15" authorId="0">
+    <comment ref="BK15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -816,7 +829,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BK15" authorId="0">
+    <comment ref="BL15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -829,7 +842,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BL15" authorId="0">
+    <comment ref="BM15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -842,7 +855,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BM15" authorId="0">
+    <comment ref="BN15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -855,7 +868,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BN15" authorId="0">
+    <comment ref="BO15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -868,7 +881,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BO15" authorId="0">
+    <comment ref="BP15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -881,7 +894,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BP15" authorId="0">
+    <comment ref="BQ15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -894,7 +907,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BQ15" authorId="0">
+    <comment ref="BR15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -907,7 +920,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BR15" authorId="0">
+    <comment ref="BS15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -920,7 +933,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BS15" authorId="0">
+    <comment ref="BT15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -933,7 +946,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BT15" authorId="0">
+    <comment ref="BU15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -946,7 +959,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BU15" authorId="0">
+    <comment ref="BV15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -959,7 +972,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BV15" authorId="0">
+    <comment ref="BW15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -972,7 +985,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BW15" authorId="0">
+    <comment ref="BX15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -985,7 +998,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BX15" authorId="0">
+    <comment ref="BY15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -998,7 +1011,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BY15" authorId="0">
+    <comment ref="BZ15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1011,7 +1024,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="BZ15" authorId="0">
+    <comment ref="CA15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Identifier for the physical specimen. Use format: "[&lt;institution-code&gt;:[&lt;collection-code&gt;:]]&lt;specimen_id&gt;", eg, "UAM:Mamm:52179". Intended as a reference to the physical specimen that remains after it was analyzed. If the specimen was destroyed in the process of analysis, electronic images (e-vouchers) are an adequate substitute for a physical voucher specimen. Ideally the specimens will be deposited in a curated museum, herbarium, or frozen tissue collection, but often they will remain in a personal or laboratory collection for some time before they are deposited in a curated collection. There are three forms of specimen_voucher qualifiers. If the text of the qualifier includes one or more colons it is a 'structured voucher'. Structured vouchers include institution-codes (and optional collection-codes) taken from a controlled vocabulary maintained by the INSDC that denotes the museum or herbarium collection where the specimen resides, please visit the INSDC website, http://www.insdc.org/controlled-vocabulary-specimenvoucher-qualifier</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CB15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1024,7 +1050,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CA15" authorId="0">
+    <comment ref="CC15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1037,7 +1063,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CB15" authorId="0">
+    <comment ref="CD15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1050,7 +1076,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CC15" authorId="0">
+    <comment ref="CE15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1063,7 +1089,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CD15" authorId="0">
+    <comment ref="CF15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1076,7 +1102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CE15" authorId="0">
+    <comment ref="CG15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1089,7 +1115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CF15" authorId="0">
+    <comment ref="CH15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1102,7 +1128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CG15" authorId="0">
+    <comment ref="CI15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1115,7 +1141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CH15" authorId="0">
+    <comment ref="CJ15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1128,7 +1154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CI15" authorId="0">
+    <comment ref="CK15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1141,7 +1167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CJ15" authorId="0">
+    <comment ref="CL15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1154,7 +1180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CK15" authorId="0">
+    <comment ref="CM15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1172,7 +1198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'MIGS: eukaryote, soil; version 4.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -1323,6 +1349,9 @@
     <t>crop_rotation</t>
   </si>
   <si>
+    <t>culture_collection</t>
+  </si>
+  <si>
     <t>cur_land_use</t>
   </si>
   <si>
@@ -1459,6 +1488,9 @@
   </si>
   <si>
     <t>source_material_id</t>
+  </si>
+  <si>
+    <t>specimen_voucher</t>
   </si>
   <si>
     <t>store_cond</t>
@@ -1915,77 +1947,77 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89">
+    <row r="1" spans="1:91">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:89">
+    <row r="2" spans="1:91">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:89" s="3" customFormat="1">
+    <row r="3" spans="1:91" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:89" s="4" customFormat="1">
+    <row r="4" spans="1:91" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:89" s="5" customFormat="1">
+    <row r="5" spans="1:91" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:89">
+    <row r="6" spans="1:91">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:89">
+    <row r="7" spans="1:91">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:89">
+    <row r="8" spans="1:91">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:89">
+    <row r="9" spans="1:91">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:89">
+    <row r="10" spans="1:91">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:89">
+    <row r="11" spans="1:91">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:89">
+    <row r="12" spans="1:91">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:89">
+    <row r="13" spans="1:91">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:89">
+    <row r="14" spans="1:91">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:89">
+    <row r="15" spans="1:91">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -2252,6 +2284,12 @@
       </c>
       <c r="CK15" s="8" t="s">
         <v>102</v>
+      </c>
+      <c r="CL15" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CM15" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/ykodama/ddbj_packages/excel/MIGS.eu.soil.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIGS.eu.soil.4.0.xlsx
@@ -435,7 +435,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Name of source institute and unique culture identifier. See the description for the proper format and list of allowed institutes, http://www.insdc.org/controlled-vocabulary-culturecollection-qualifier</t>
+          <t>present state of sample site</t>
         </r>
       </text>
     </comment>
@@ -448,7 +448,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>present state of sample site</t>
+          <t>vegetation classification from one or more standard classification systems, or agricultural crop</t>
         </r>
       </text>
     </comment>
@@ -461,7 +461,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>vegetation classification from one or more standard classification systems, or agricultural crop</t>
+          <t>reference or method used in vegetation classification</t>
         </r>
       </text>
     </comment>
@@ -474,7 +474,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>reference or method used in vegetation classification</t>
+          <t>drainage classification from a standard system such as the USDA system</t>
         </r>
       </text>
     </comment>
@@ -487,7 +487,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>drainage classification from a standard system such as the USDA system</t>
+          <t>Plasmids that have significance phenotypic consequence</t>
         </r>
       </text>
     </comment>
@@ -500,7 +500,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Plasmids that have significance phenotypic consequence</t>
+          <t>unusual physical events that may have affected microbial populations</t>
         </r>
       </text>
     </comment>
@@ -513,7 +513,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>unusual physical events that may have affected microbial populations</t>
+          <t>measured salinity</t>
         </r>
       </text>
     </comment>
@@ -526,7 +526,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>measured salinity</t>
+          <t>soil classification from the FAO World Reference Database for Soil Resources</t>
         </r>
       </text>
     </comment>
@@ -539,7 +539,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>soil classification from the FAO World Reference Database for Soil Resources</t>
+          <t>historical and/or physical evidence of fire</t>
         </r>
       </text>
     </comment>
@@ -552,7 +552,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>historical and/or physical evidence of fire</t>
+          <t>historical and/or physical evidence of flooding</t>
         </r>
       </text>
     </comment>
@@ -565,7 +565,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>historical and/or physical evidence of flooding</t>
+          <t>Health or disease status of sample at time of collection</t>
         </r>
       </text>
     </comment>
@@ -578,7 +578,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Health or disease status of sample at time of collection</t>
+          <t>heavy metals present and concentrations of any drug used by subject and the frequency of usage; can include multiple heavy metals and concentrations</t>
         </r>
       </text>
     </comment>
@@ -591,7 +591,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>heavy metals present and concentrations of any drug used by subject and the frequency of usage; can include multiple heavy metals and concentrations</t>
+          <t>reference or method used in determining heavy metals</t>
         </r>
       </text>
     </comment>
@@ -604,7 +604,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>reference or method used in determining heavy metals</t>
+          <t>specific layer in the land area which measures parallel to the soil surface and possesses physical characteristics which differ from the layers above and beneath</t>
         </r>
       </text>
     </comment>
@@ -617,7 +617,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>specific layer in the land area which measures parallel to the soil surface and possesses physical characteristics which differ from the layers above and beneath</t>
+          <t>reference or method used in determining the horizon</t>
         </r>
       </text>
     </comment>
@@ -630,7 +630,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>reference or method used in determining the horizon</t>
+          <t>The natural (as opposed to laboratory) host to the organism from which the sample was obtained. Use the full taxonomic name, eg, "Homo sapiens".</t>
         </r>
       </text>
     </comment>
@@ -643,7 +643,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The natural (as opposed to laboratory) host to the organism from which the sample was obtained. Use the full taxonomic name, eg, "Homo sapiens".</t>
+          <t>NCBI taxonomy ID of the host, e.g. 9606</t>
         </r>
       </text>
     </comment>
@@ -656,23 +656,23 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>NCBI taxonomy ID of the host, e.g. 9606</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AX15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
           <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
         </r>
       </text>
     </comment>
+    <comment ref="AY15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>link to digitized soil maps or other soil classification information</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AZ15" authorId="0">
       <text>
         <r>
@@ -682,7 +682,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>link to digitized soil maps or other soil classification information</t>
+          <t>link to climate resource</t>
         </r>
       </text>
     </comment>
@@ -695,7 +695,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>link to climate resource</t>
+          <t>soil classification based on local soil classification system</t>
         </r>
       </text>
     </comment>
@@ -708,7 +708,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>soil classification based on local soil classification system</t>
+          <t>reference or method used in determining the local soil classification</t>
         </r>
       </text>
     </comment>
@@ -721,7 +721,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>reference or method used in determining the local soil classification</t>
+          <t>A locus tag prefix required for an annotated genome, http://www.ddbj.nig.ac.jp/sub/locus_tag-e.html</t>
         </r>
       </text>
     </comment>
@@ -734,7 +734,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>A locus tag prefix required for an annotated genome, http://www.ddbj.nig.ac.jp/sub/locus_tag-e.html</t>
+          <t>the part of the organic matter in the soil that constitutes living microorganisms smaller than 5-10 micrometers. IF you keep this, you would need to have correction factors used for conversion to the final units, which should be mg C (or N)/kg soil).</t>
         </r>
       </text>
     </comment>
@@ -747,7 +747,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>the part of the organic matter in the soil that constitutes living microorganisms smaller than 5-10 micrometers. IF you keep this, you would need to have correction factors used for conversion to the final units, which should be mg C (or N)/kg soil).</t>
+          <t>reference or method used in determining microbial biomass</t>
         </r>
       </text>
     </comment>
@@ -760,7 +760,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>reference or method used in determining microbial biomass</t>
+          <t>any other measurement performed or parameter collected, that is not listed here</t>
         </r>
       </text>
     </comment>
@@ -773,7 +773,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>any other measurement performed or parameter collected, that is not listed here</t>
+          <t>To what is the entity pathogenic</t>
         </r>
       </text>
     </comment>
@@ -786,7 +786,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>To what is the entity pathogenic</t>
+          <t>pH measurement</t>
         </r>
       </text>
     </comment>
@@ -799,7 +799,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>pH measurement</t>
+          <t>reference or method used in determining pH</t>
         </r>
       </text>
     </comment>
@@ -812,7 +812,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>reference or method used in determining pH</t>
+          <t>were multiple DNA extractions mixed? how many?</t>
         </r>
       </text>
     </comment>
@@ -825,7 +825,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>were multiple DNA extractions mixed? how many?</t>
+          <t>previous land use and dates</t>
         </r>
       </text>
     </comment>
@@ -838,7 +838,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>previous land use and dates</t>
+          <t>reference or method used in determining previous land use and dates</t>
         </r>
       </text>
     </comment>
@@ -851,7 +851,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>reference or method used in determining previous land use and dates</t>
+          <t>cross-sectional position in the hillslope where sample was collected, sample area position in relation to surrounding areas</t>
         </r>
       </text>
     </comment>
@@ -864,7 +864,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>cross-sectional position in the hillslope where sample was collected, sample area position in relation to surrounding areas</t>
+          <t>Primary publication or genome report in the form of pubmed ID, DOI or URL</t>
         </r>
       </text>
     </comment>
@@ -877,7 +877,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Primary publication or genome report in the form of pubmed ID, DOI or URL</t>
+          <t>reference or method used in determining salinity</t>
         </r>
       </text>
     </comment>
@@ -890,7 +890,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>reference or method used in determining salinity</t>
+          <t>Method or device employed for collecting sample</t>
         </r>
       </text>
     </comment>
@@ -903,7 +903,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Method or device employed for collecting sample</t>
+          <t>Processing applied to the sample during or after isolation</t>
         </r>
       </text>
     </comment>
@@ -916,7 +916,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Processing applied to the sample during or after isolation</t>
+          <t>Amount or size of sample (volume, mass or area) that was collected</t>
         </r>
       </text>
     </comment>
@@ -929,7 +929,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Amount or size of sample (volume, mass or area) that was collected</t>
+          <t>volume (mL) or weight (g) of sample processed for DNA extraction</t>
         </r>
       </text>
     </comment>
@@ -942,7 +942,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>volume (mL) or weight (g) of sample processed for DNA extraction</t>
+          <t>collection design of pooled samples and/or sieve size and amount of sample sieved</t>
         </r>
       </text>
     </comment>
@@ -955,7 +955,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>collection design of pooled samples and/or sieve size and amount of sample sieved</t>
+          <t>the direction a slope faces. While looking down a slope use a compass to record the direction you are facing (direction or degrees); e.g., NW or 315°. This measure provides an indication of sun and wind exposure that will influence soil temperature and evapotranspiration.</t>
         </r>
       </text>
     </comment>
@@ -968,7 +968,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>the direction a slope faces. While looking down a slope use a compass to record the direction you are facing (direction or degrees); e.g., NW or 315°. This measure provides an indication of sun and wind exposure that will influence soil temperature and evapotranspiration.</t>
+          <t>commonly called "slope". The angle between ground surface and a horizontal line (in percent). This is the direction that overland water would flow. This measure is usually taken with a hand level meter or clinometer.</t>
         </r>
       </text>
     </comment>
@@ -981,7 +981,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>commonly called "slope". The angle between ground surface and a horizontal line (in percent). This is the direction that overland water would flow. This measure is usually taken with a hand level meter or clinometer.</t>
+          <t>soil series name or other lower-level classification</t>
         </r>
       </text>
     </comment>
@@ -994,7 +994,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>soil series name or other lower-level classification</t>
+          <t>reference or method used in determining soil series name or other lower-level classification</t>
         </r>
       </text>
     </comment>
@@ -1007,7 +1007,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>reference or method used in determining soil series name or other lower-level classification</t>
+          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
         </r>
       </text>
     </comment>
@@ -1020,7 +1020,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
+          <t>Identifier for the physical specimen. Use format: "[&lt;institution-code&gt;:[&lt;collection-code&gt;:]]&lt;specimen_id&gt;", eg, "UAM:Mamm:52179". Intended as a reference to the physical specimen that remains after it was analyzed. If the specimen was destroyed in the process of analysis, electronic images (e-vouchers) are an adequate substitute for a physical voucher specimen. Ideally the specimens will be deposited in a curated museum, herbarium, or frozen tissue collection, but often they will remain in a personal or laboratory collection for some time before they are deposited in a curated collection. There are three forms of specimen_voucher qualifiers. If the text of the qualifier includes one or more colons it is a 'structured voucher'. Structured vouchers include institution-codes (and optional collection-codes) taken from a controlled vocabulary maintained by the INSDC that denotes the museum or herbarium collection where the specimen resides, please visit the INSDC website, http://www.insdc.org/controlled-vocabulary-specimenvoucher-qualifier</t>
         </r>
       </text>
     </comment>
@@ -1033,7 +1033,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Identifier for the physical specimen. Use format: "[&lt;institution-code&gt;:[&lt;collection-code&gt;:]]&lt;specimen_id&gt;", eg, "UAM:Mamm:52179". Intended as a reference to the physical specimen that remains after it was analyzed. If the specimen was destroyed in the process of analysis, electronic images (e-vouchers) are an adequate substitute for a physical voucher specimen. Ideally the specimens will be deposited in a curated museum, herbarium, or frozen tissue collection, but often they will remain in a personal or laboratory collection for some time before they are deposited in a curated collection. There are three forms of specimen_voucher qualifiers. If the text of the qualifier includes one or more colons it is a 'structured voucher'. Structured vouchers include institution-codes (and optional collection-codes) taken from a controlled vocabulary maintained by the INSDC that denotes the museum or herbarium collection where the specimen resides, please visit the INSDC website, http://www.insdc.org/controlled-vocabulary-specimenvoucher-qualifier</t>
+          <t>explain how and for how long the soil sample was stored before DNA extraction.</t>
         </r>
       </text>
     </comment>
@@ -1046,7 +1046,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>explain how and for how long the soil sample was stored before DNA extraction.</t>
+          <t>Information about the genetic distinctness of the lineage (eg., biovar, serovar)</t>
         </r>
       </text>
     </comment>
@@ -1059,7 +1059,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Information about the genetic distinctness of the lineage (eg., biovar, serovar)</t>
+          <t>the relative proportion of different grain sizes of mineral particles in a soil, as described using a standard system; express as % sand (50 um to 2 mm), silt (2 um to 50 um), and clay (&lt;2 um) with textural name (e.g., silty clay loam) optional.</t>
         </r>
       </text>
     </comment>
@@ -1072,7 +1072,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>the relative proportion of different grain sizes of mineral particles in a soil, as described using a standard system; express as % sand (50 um to 2 mm), silt (2 um to 50 um), and clay (&lt;2 um) with textural name (e.g., silty clay loam) optional.</t>
+          <t>reference or method used in determining soil texture</t>
         </r>
       </text>
     </comment>
@@ -1085,7 +1085,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>reference or method used in determining soil texture</t>
+          <t>note method(s) used for tilling</t>
         </r>
       </text>
     </comment>
@@ -1098,7 +1098,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>note method(s) used for tilling</t>
+          <t>reference or method used in determining the total N</t>
         </r>
       </text>
     </comment>
@@ -1111,7 +1111,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>reference or method used in determining the total N</t>
+          <t>total nitrogen content of the sample</t>
         </r>
       </text>
     </comment>
@@ -1124,7 +1124,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>total nitrogen content of the sample</t>
+          <t>reference or method used in determining total organic C</t>
         </r>
       </text>
     </comment>
@@ -1137,7 +1137,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>reference or method used in determining total organic C</t>
+          <t>Definition for soil: total organic C content of the soil units of g C/kg soil. Definition otherwise: total organic carbon content</t>
         </r>
       </text>
     </comment>
@@ -1150,7 +1150,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Definition for soil: total organic C content of the soil units of g C/kg soil. Definition otherwise: total organic carbon content</t>
+          <t>Feeding position in food chain (eg., chemolithotroph)</t>
         </r>
       </text>
     </comment>
@@ -1163,24 +1163,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Feeding position in food chain (eg., chemolithotroph)</t>
+          <t>water content (g/g or cm3/cm3)</t>
         </r>
       </text>
     </comment>
     <comment ref="CL15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>water content (g/g or cm3/cm3)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CM15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1198,7 +1185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'MIGS: eukaryote, soil; version 4.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -1347,9 +1334,6 @@
   </si>
   <si>
     <t>crop_rotation</t>
-  </si>
-  <si>
-    <t>culture_collection</t>
   </si>
   <si>
     <t>cur_land_use</t>
@@ -1947,77 +1931,77 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91">
+    <row r="1" spans="1:90">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:91">
+    <row r="2" spans="1:90">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:91" s="3" customFormat="1">
+    <row r="3" spans="1:90" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:91" s="4" customFormat="1">
+    <row r="4" spans="1:90" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:91" s="5" customFormat="1">
+    <row r="5" spans="1:90" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:91">
+    <row r="6" spans="1:90">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:91">
+    <row r="7" spans="1:90">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:91">
+    <row r="8" spans="1:90">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:91">
+    <row r="9" spans="1:90">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:91">
+    <row r="10" spans="1:90">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:91">
+    <row r="11" spans="1:90">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:91">
+    <row r="12" spans="1:90">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:91">
+    <row r="13" spans="1:90">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:91">
+    <row r="14" spans="1:90">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:91">
+    <row r="15" spans="1:90">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -2287,9 +2271,6 @@
       </c>
       <c r="CL15" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="CM15" s="8" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
